--- a/okta.xlsx
+++ b/okta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668045B-23D5-47A0-98E6-BFB89FE8534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1451B776-1270-481D-BE27-29A8DF82411A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="60" windowWidth="19110" windowHeight="20520" activeTab="1" xr2:uid="{BBF85A1E-8C31-44C5-B4BB-4643AC6078BE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18540" windowHeight="20985" xr2:uid="{BBF85A1E-8C31-44C5-B4BB-4643AC6078BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>OKTA</t>
   </si>
@@ -133,6 +133,114 @@
   </si>
   <si>
     <t>gross margin</t>
+  </si>
+  <si>
+    <t>2850-2860</t>
+  </si>
+  <si>
+    <t>q123</t>
+  </si>
+  <si>
+    <t>q223</t>
+  </si>
+  <si>
+    <t>q323</t>
+  </si>
+  <si>
+    <t>q423</t>
+  </si>
+  <si>
+    <t>q124</t>
+  </si>
+  <si>
+    <t>q224</t>
+  </si>
+  <si>
+    <t>q424</t>
+  </si>
+  <si>
+    <t>q125</t>
+  </si>
+  <si>
+    <t>q225</t>
+  </si>
+  <si>
+    <t>q325</t>
+  </si>
+  <si>
+    <t>q425</t>
+  </si>
+  <si>
+    <t>q324</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>ttm</t>
+  </si>
+  <si>
+    <t>q4 rev * 4</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>a * growth rate</t>
+  </si>
+  <si>
+    <t>rev multiple</t>
+  </si>
+  <si>
+    <t>ttm multiple</t>
+  </si>
+  <si>
+    <t>a multiple</t>
+  </si>
+  <si>
+    <t>a*gr multiple</t>
+  </si>
+  <si>
+    <t>fcf multiple</t>
+  </si>
+  <si>
+    <t>ytd fcf</t>
+  </si>
+  <si>
+    <t>q4 fcf</t>
+  </si>
+  <si>
+    <t>q4 * 4 fcf</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>b* growth rate</t>
+  </si>
+  <si>
+    <t>fcf yoy</t>
+  </si>
+  <si>
+    <t>b fcf multiple</t>
   </si>
 </sst>
 </file>
@@ -188,17 +296,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +322,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4811234D-F766-576C-77BC-4A91CCBBC39D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5860143" y="13607"/>
+          <a:ext cx="0" cy="4862286"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,17 +696,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2B9860-66C4-4AF3-8EF9-232A2EAA0A77}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8">
+        <v>184000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F2*F3</f>
+        <v>18400000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8">
+        <v>409000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2523000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8">
+        <f>F4-F5+F6</f>
+        <v>20514000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2610000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8">
+        <f>682000000*4</f>
+        <v>2728000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="8">
+        <f>F9*1.3</f>
+        <v>3393000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="8">
+        <v>730000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8">
+        <v>284000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8">
+        <f>F14*4</f>
+        <v>1136000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
+        <f>F7/F9</f>
+        <v>7.8597701149425285</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="e">
+        <f>F7/F10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <f>F7/F11</f>
+        <v>7.5197947214076244</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <f>F7/F12</f>
+        <v>6.0459770114942533</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <f>F7/F13</f>
+        <v>28.101369863013698</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <f>F7/F15</f>
+        <v>18.058098591549296</v>
       </c>
     </row>
   </sheetData>
@@ -554,13 +896,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8C7EF4-D2F2-4CBA-844E-97FB60E41A5D}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +910,7 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2019</v>
       </c>
@@ -595,8 +937,47 @@
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,8 +990,11 @@
       <c r="G2">
         <v>18950</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -632,8 +1016,11 @@
       <c r="G3">
         <v>4485</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -647,7 +1034,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -659,8 +1046,12 @@
         <f>G2/F2-1</f>
         <v>7.6704545454545414E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <f>H2/G2-1</f>
+        <v>3.6939313984168942E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -684,8 +1075,12 @@
         <f>G3/F3-1</f>
         <v>0.14122137404580148</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <f>H3/G3-1</f>
+        <v>7.0234113712374535E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -694,25 +1089,29 @@
         <v>0.20666666666666667</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:G8" si="2">F3/F2</f>
+        <f t="shared" ref="F8:H8" si="2">F3/F2</f>
         <v>0.22329545454545455</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>0.23667546174142481</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24427480916030533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>370.85500000000002</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>552.68799999999999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>796.61300000000006</v>
       </c>
       <c r="E10">
@@ -724,18 +1123,21 @@
       <c r="G10">
         <v>2205</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>28</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>33.378999999999998</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>38.811</v>
       </c>
       <c r="E11">
@@ -747,20 +1149,23 @@
       <c r="G11">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>SUM(B10:B11)</f>
         <v>398.85500000000002</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f t="shared" ref="C12:D12" si="3">SUM(C10:C11)</f>
         <v>586.06700000000001</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="3"/>
         <v>835.42400000000009</v>
       </c>
@@ -776,18 +1181,61 @@
         <f t="shared" si="4"/>
         <v>2263</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f>SUM(H10:H11)</f>
+        <v>2610</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3">
+        <v>415</v>
+      </c>
+      <c r="L12" s="3">
+        <v>452</v>
+      </c>
+      <c r="M12" s="3">
+        <v>481</v>
+      </c>
+      <c r="N12" s="3">
+        <v>510</v>
+      </c>
+      <c r="O12" s="3">
+        <v>518</v>
+      </c>
+      <c r="P12" s="3">
+        <v>556</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>584</v>
+      </c>
+      <c r="R12" s="3">
+        <v>605</v>
+      </c>
+      <c r="S12" s="3">
+        <v>617</v>
+      </c>
+      <c r="T12" s="3">
+        <v>646</v>
+      </c>
+      <c r="U12" s="3">
+        <v>665</v>
+      </c>
+      <c r="V12" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>-77.353999999999999</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>-116.44499999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>-170.095</v>
       </c>
       <c r="E13" s="4">
@@ -800,17 +1248,17 @@
         <v>-502</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>-36.067</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>-42.936999999999998</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>-47.585999999999999</v>
       </c>
       <c r="E14" s="4">
@@ -823,19 +1271,19 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <f>SUM(B13:B14)</f>
         <v>-113.42099999999999</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f t="shared" ref="C15:D15" si="5">SUM(C13:C14)</f>
         <v>-159.38200000000001</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="5"/>
         <v>-217.68099999999998</v>
       </c>
@@ -852,19 +1300,19 @@
         <v>-581</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <f>B12+B15</f>
         <v>285.43400000000003</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" ref="C16:D16" si="7">C12+C15</f>
         <v>426.685</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="7"/>
         <v>617.74300000000017</v>
       </c>
@@ -881,17 +1329,17 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>-102.38500000000001</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>-159.26900000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>-222.82599999999999</v>
       </c>
       <c r="E17" s="4">
@@ -904,17 +1352,17 @@
         <v>-656</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>-227.96</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>-340.35599999999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>-427.35</v>
       </c>
       <c r="E18" s="4">
@@ -927,17 +1375,17 @@
         <v>-1036</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>-75.11</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>-112.892</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>-171.726</v>
       </c>
       <c r="E19" s="4">
@@ -950,17 +1398,17 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>0</v>
       </c>
       <c r="E20" s="4">
@@ -973,19 +1421,19 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <f>SUM(B17:B20)</f>
         <v>-405.45500000000004</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <f t="shared" ref="C21:D21" si="9">SUM(C17:C20)</f>
         <v>-612.51700000000005</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f t="shared" si="9"/>
         <v>-821.90200000000004</v>
       </c>
@@ -1002,19 +1450,19 @@
         <v>-2198</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <f>B16+B21</f>
         <v>-120.02100000000002</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f t="shared" ref="C22:D22" si="11">C16+C21</f>
         <v>-185.83200000000005</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <f t="shared" si="11"/>
         <v>-204.15899999999988</v>
       </c>
@@ -1031,17 +1479,17 @@
         <v>-516</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>-15.071999999999999</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>-27.016999999999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>-72.66</v>
       </c>
       <c r="E23" s="4">
@@ -1054,17 +1502,17 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>9.18</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>17.088999999999999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>12.891</v>
       </c>
       <c r="E24" s="4">
@@ -1077,17 +1525,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>-14.571999999999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>-2.2629999999999999</v>
       </c>
       <c r="E25" s="4">
@@ -1100,17 +1548,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>1.419</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0.14099999999999999</v>
       </c>
       <c r="E26" s="4">
@@ -1123,19 +1571,19 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <f>SUM(B22:B26)</f>
         <v>-125.89600000000002</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <f t="shared" ref="C27:D27" si="13">SUM(C22:C26)</f>
         <v>-208.91300000000004</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <f t="shared" si="13"/>
         <v>-266.04999999999978</v>
       </c>
@@ -1152,25 +1600,25 @@
         <v>-355</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2">
         <f>C12/B12-1</f>
         <v>0.46937358187812617</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29:G29" si="14">D12/C12-1</f>
+        <f t="shared" ref="D29:H29" si="14">D12/C12-1</f>
         <v>0.42547524429800698</v>
       </c>
       <c r="E29" s="2">
@@ -1185,12 +1633,16 @@
         <f t="shared" si="14"/>
         <v>0.21797631862217437</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="H29" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15333627927529836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="2">
         <f>C16/B16-1</f>
         <v>0.49486396154627688</v>
@@ -1212,8 +1664,8 @@
         <v>0.28201219512195119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2">
@@ -1241,11 +1693,11 @@
         <v>0.74326115775519219</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="2">
         <f>ABS(C21)/ABS(B21)-1</f>
         <v>0.51069045886719855</v>
@@ -1267,26 +1719,26 @@
         <v>3.4839924670433176E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="E36">
@@ -1298,18 +1750,73 @@
       <c r="G36">
         <v>512</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>-17</v>
+      </c>
+      <c r="F37">
+        <v>-21</v>
+      </c>
+      <c r="G37">
+        <v>-23</v>
+      </c>
+      <c r="H37">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
+      <c r="E38">
+        <f t="shared" ref="E38:F38" si="18">SUM(E36:E37)</f>
+        <v>87</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G36:G37)</f>
+        <v>489</v>
+      </c>
+      <c r="H38">
+        <f>SUM(H36:H37)</f>
+        <v>730</v>
+      </c>
+      <c r="R38">
+        <v>166</v>
+      </c>
+      <c r="V38">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="2">
+        <f>F38/E38-1</f>
+        <v>-0.25287356321839083</v>
+      </c>
+      <c r="G40" s="2">
+        <f>G38/F38-1</f>
+        <v>6.523076923076923</v>
+      </c>
+      <c r="H40" s="2">
+        <f>H38/G38-1</f>
+        <v>0.49284253578732096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>